--- a/劫镖计算/data.xlsx
+++ b/劫镖计算/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\劫镖计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD003E-F6A2-4722-9AE0-E8B7BD3DD92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B5852-181B-4E2C-A845-946AEA790C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>enemy-ruizesuiyuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯鹰女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2099,15 +2103,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC62C21-2FC4-4E37-B6CD-74602EFB73E9}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2125,19 +2129,25 @@
       <c r="C2">
         <v>2042</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3">
+        <v>4196</v>
+      </c>
+      <c r="C3">
         <v>4035</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2147,8 +2157,11 @@
       <c r="C4">
         <v>599</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2158,8 +2171,11 @@
       <c r="C5">
         <v>1034</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2169,8 +2185,11 @@
       <c r="C6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2180,8 +2199,11 @@
       <c r="C7">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2191,8 +2213,11 @@
       <c r="C8">
         <v>491</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2202,8 +2227,11 @@
       <c r="C9">
         <v>325</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2213,8 +2241,11 @@
       <c r="C10">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2224,8 +2255,11 @@
       <c r="C11">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2235,8 +2269,11 @@
       <c r="C12">
         <v>263</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2246,8 +2283,11 @@
       <c r="C13">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2297,11 @@
       <c r="C14">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2311,11 @@
       <c r="C15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2279,8 +2325,11 @@
       <c r="C16">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2290,8 +2339,11 @@
       <c r="C17">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2301,8 +2353,11 @@
       <c r="C18">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2312,8 +2367,11 @@
       <c r="C19">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2323,8 +2381,11 @@
       <c r="C20">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2333,6 +2394,23 @@
       </c>
       <c r="C21">
         <v>115</v>
+      </c>
+      <c r="D21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>300</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2433,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/劫镖计算/data.xlsx
+++ b/劫镖计算/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\劫镖计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B5852-181B-4E2C-A845-946AEA790C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B509D-6DDD-4BF2-8877-2A9154449BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4155" yWindow="7155" windowWidth="9840" windowHeight="8250" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,13 @@
     <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId6"/>
     <sheet name="enemy-ruizexiaowei" sheetId="9" r:id="rId7"/>
     <sheet name="enemy-ruizesuiyuan" sheetId="10" r:id="rId8"/>
-    <sheet name="enemies" sheetId="6" r:id="rId9"/>
+    <sheet name="enemy-ruizeboniu" sheetId="11" r:id="rId9"/>
+    <sheet name="enemy-zhejianghonglin" sheetId="12" r:id="rId10"/>
+    <sheet name="enemy-shanhaisuying" sheetId="13" r:id="rId11"/>
+    <sheet name="enemy-ruizechangzainao" sheetId="14" r:id="rId12"/>
+    <sheet name="enemy-ruizehouyi" sheetId="16" r:id="rId13"/>
+    <sheet name="pinyin" sheetId="15" r:id="rId14"/>
+    <sheet name="enemies" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -285,6 +291,240 @@
   </si>
   <si>
     <t>讯鹰女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽波妞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizeboniu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗疆</t>
+  </si>
+  <si>
+    <t>红娘子</t>
+  </si>
+  <si>
+    <t>草原女</t>
+  </si>
+  <si>
+    <t>梦琪儿</t>
+  </si>
+  <si>
+    <t>陆长青</t>
+  </si>
+  <si>
+    <t>浪子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞者</t>
+  </si>
+  <si>
+    <t>捕快</t>
+  </si>
+  <si>
+    <t>驯马师</t>
+  </si>
+  <si>
+    <t>琵琶女</t>
+  </si>
+  <si>
+    <t>少将军</t>
+  </si>
+  <si>
+    <t>舞女</t>
+  </si>
+  <si>
+    <t>新娘</t>
+  </si>
+  <si>
+    <t>静阉</t>
+  </si>
+  <si>
+    <t>嬷嬷</t>
+  </si>
+  <si>
+    <t>洪林小把菜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-zhejianghonglin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-shanhaisuying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海宿盈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗疆女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训鹰女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常在闹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizechangzainao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅鹰少女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xysn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xqg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cynh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sxn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音首字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后裔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizehouyi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xynz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmnz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +559,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,11 +621,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -381,6 +727,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286173</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55EA34F-B6F4-3A67-F894-511C25F4992C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="2743200"/>
+          <a:ext cx="3029373" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,6 +1229,1705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1035B069-B30C-40B1-8270-BD05CA14BA3E}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A50:A1048576 A27:A48 A1:A14">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7F95F1-A05E-42EF-B051-7937FD24C563}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A50:A1048576 A1 A23 A26 A28:A40 A48 A3:A21">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F69CF7-AF89-479D-B349-8B6499DA5EA4}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2048</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>460</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>370</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>353</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>336</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="5">
+        <v>323</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9">
+        <v>307</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9">
+        <v>306</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <v>236</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>218</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>218</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>217</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>206</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>191</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>187</v>
+      </c>
+      <c r="C17"/>
+      <c r="I17">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>179</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>178</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5">
+        <v>172</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>111</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="9">
+        <v>110</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5">
+        <v>55</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
+        <f>SUM(B2:B45)</f>
+        <v>8781</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition descending="1" ref="B2:B23"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A52:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A31 A33 A3:A23 A36:A42">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1B8769-5114-4510-946F-2A5B6D6DC5C3}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1213</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>1061</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>533</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>257</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>209</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>196</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>187</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>155</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>219</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>178</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>195</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>166</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>167</v>
+      </c>
+      <c r="C17"/>
+      <c r="F17">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>132</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
+        <f>SUM(B2:B45)</f>
+        <v>5504</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A52:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 A44 A31 A33 A36:A42">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2ED95-7A07-4C11-B472-0435A560E3D4}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A2:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -2105,7 +4199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC62C21-2FC4-4E37-B6CD-74602EFB73E9}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2508,77 +4602,305 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A89633-53B3-4913-BB90-B4CB200B1FA3}">
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="4">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>124</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="5"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="5"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="5"/>
+      <c r="C45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A40:A42 A44:A1048576 A1:A22 A27:A38">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/劫镖计算/data.xlsx
+++ b/劫镖计算/data.xlsx
@@ -2,32 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\劫镖计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B509D-6DDD-4BF2-8877-2A9154449BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305BDDFE-000B-4D02-A1E4-0E2059433ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4155" yWindow="7155" windowWidth="9840" windowHeight="8250" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26475" yWindow="1425" windowWidth="9840" windowHeight="8250" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
-    <sheet name="oldenemy" sheetId="2" r:id="rId2"/>
-    <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId3"/>
-    <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId4"/>
-    <sheet name="enemy-wuyanzu" sheetId="8" r:id="rId5"/>
-    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId6"/>
-    <sheet name="enemy-ruizexiaowei" sheetId="9" r:id="rId7"/>
-    <sheet name="enemy-ruizesuiyuan" sheetId="10" r:id="rId8"/>
-    <sheet name="enemy-ruizeboniu" sheetId="11" r:id="rId9"/>
-    <sheet name="enemy-zhejianghonglin" sheetId="12" r:id="rId10"/>
-    <sheet name="enemy-shanhaisuying" sheetId="13" r:id="rId11"/>
-    <sheet name="enemy-ruizechangzainao" sheetId="14" r:id="rId12"/>
-    <sheet name="enemy-ruizehouyi" sheetId="16" r:id="rId13"/>
-    <sheet name="pinyin" sheetId="15" r:id="rId14"/>
-    <sheet name="enemies" sheetId="6" r:id="rId15"/>
+    <sheet name="25-zhouxingxing" sheetId="17" r:id="rId2"/>
+    <sheet name="oldenemy" sheetId="2" r:id="rId3"/>
+    <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId4"/>
+    <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId5"/>
+    <sheet name="enemy-wuyanzu" sheetId="8" r:id="rId6"/>
+    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId7"/>
+    <sheet name="enemy-ruizexiaowei" sheetId="9" r:id="rId8"/>
+    <sheet name="enemy-ruizesuiyuan" sheetId="10" r:id="rId9"/>
+    <sheet name="enemy-ruizeboniu" sheetId="11" r:id="rId10"/>
+    <sheet name="enemy-zhejianghonglin" sheetId="12" r:id="rId11"/>
+    <sheet name="enemy-shanhaisuying" sheetId="13" r:id="rId12"/>
+    <sheet name="enemy-ruizechangzainao" sheetId="14" r:id="rId13"/>
+    <sheet name="enemy-xiaosashapolang" sheetId="20" r:id="rId14"/>
+    <sheet name="enemy-ruizehouyi" sheetId="16" r:id="rId15"/>
+    <sheet name="pinyin" sheetId="15" r:id="rId16"/>
+    <sheet name="测试" sheetId="18" r:id="rId17"/>
+    <sheet name="输入" sheetId="19" r:id="rId18"/>
+    <sheet name="enemies" sheetId="6" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -82,270 +86,267 @@
     <t>丫鬟</t>
   </si>
   <si>
+    <t>采药女</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>书香女</t>
+  </si>
+  <si>
+    <t>针线女</t>
+  </si>
+  <si>
+    <t>戏子</t>
+  </si>
+  <si>
+    <t>卖伞女</t>
+  </si>
+  <si>
     <t>草原女孩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗疆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖伞女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书香女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针线女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣娘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>采药女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丫鬟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将门女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅鹰女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯马师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花艺师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>役使</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李师师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小师妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乞丐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红娘子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>医师</t>
-  </si>
-  <si>
-    <t>书香女</t>
-  </si>
-  <si>
-    <t>针线女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙琪儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>戏子</t>
-  </si>
-  <si>
-    <t>卖伞女</t>
-  </si>
-  <si>
-    <t>草原女孩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海无情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-shanhaiboring</t>
+  </si>
+  <si>
+    <t>enemyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-sheetname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三人禾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-sanrenhe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽·大郎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizedalang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆长青</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潇洒吴彦祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-wuyanzu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽小魏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizexiaowei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新娘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静阉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬷嬷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦琪儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽随缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizesuiyuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯鹰女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽波妞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizeboniu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>苗疆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖伞女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>书香女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>针线女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣娘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采药女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红娘子</t>
+  </si>
+  <si>
+    <t>草原女</t>
+  </si>
+  <si>
+    <t>梦琪儿</t>
+  </si>
+  <si>
+    <t>陆长青</t>
+  </si>
+  <si>
+    <t>浪子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞者</t>
+  </si>
+  <si>
+    <t>捕快</t>
+  </si>
+  <si>
+    <t>驯马师</t>
   </si>
   <si>
     <t>琵琶女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丫鬟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>草原女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将门女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西域女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕快</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅鹰女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驯马师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花艺师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>役使</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李师师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小师妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小乞丐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红娘子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>医师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙琪儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑舞者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山海无情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-shanhaiboring</t>
-  </si>
-  <si>
-    <t>enemyName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-sheetname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三人禾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-sanrenhe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐泽·大郎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-ruizedalang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>少将军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>舞女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆长青</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潇洒吴彦祖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-wuyanzu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐泽小魏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-ruizexiaowei</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新娘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>静阉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>嬷嬷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦琪儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐泽随缘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-ruizesuiyuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讯鹰女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐泽波妞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy-ruizeboniu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗疆</t>
-  </si>
-  <si>
-    <t>红娘子</t>
-  </si>
-  <si>
-    <t>草原女</t>
-  </si>
-  <si>
-    <t>梦琪儿</t>
-  </si>
-  <si>
-    <t>陆长青</t>
-  </si>
-  <si>
-    <t>浪子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑舞者</t>
-  </si>
-  <si>
-    <t>捕快</t>
-  </si>
-  <si>
-    <t>驯马师</t>
-  </si>
-  <si>
-    <t>琵琶女</t>
-  </si>
-  <si>
-    <t>少将军</t>
-  </si>
-  <si>
-    <t>舞女</t>
-  </si>
-  <si>
-    <t>新娘</t>
-  </si>
-  <si>
-    <t>静阉</t>
-  </si>
-  <si>
-    <t>嬷嬷</t>
   </si>
   <si>
     <t>洪林小把菜</t>
@@ -525,6 +526,98 @@
   </si>
   <si>
     <t>jmnz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>花艺女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>蒙琪儿</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>草原女孩</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>医师</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OurData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hqs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗疆圣女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjsn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域女子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>红娘子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潇洒杀破狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-xiaosashapolang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +668,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,10 +714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -631,11 +746,52 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -733,23 +889,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>286173</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85904</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191163</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55EA34F-B6F4-3A67-F894-511C25F4992C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF39939A-44E1-14CC-F84C-295040C81334}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,8 +921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248525" y="2743200"/>
-          <a:ext cx="3029373" cy="1286054"/>
+          <a:off x="5743575" y="2419350"/>
+          <a:ext cx="4753638" cy="4582164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,23 +1239,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>1023</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>622</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>562</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,71 +1271,71 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>424</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3">
-        <v>341</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>307</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>208</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="B9" s="3">
-        <v>199</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>183</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>178</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>169</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3">
-        <v>173</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,50 +1343,504 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>176</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>162</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>155</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>123</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3">
-        <v>106</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition descending="1" ref="B1:B22"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A89633-53B3-4913-BB90-B4CB200B1FA3}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2855</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>534</v>
+      </c>
+      <c r="C3" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>507</v>
+      </c>
+      <c r="C4" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>516</v>
+      </c>
+      <c r="C5" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>366</v>
+      </c>
+      <c r="C6" s="4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>313</v>
+      </c>
+      <c r="C7" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>295</v>
+      </c>
+      <c r="C8" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>270</v>
+      </c>
+      <c r="C9" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>281</v>
+      </c>
+      <c r="C10" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <v>177</v>
+      </c>
+      <c r="C11" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>194</v>
+      </c>
+      <c r="C12" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4">
+        <v>196</v>
+      </c>
+      <c r="C13" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>170</v>
+      </c>
+      <c r="C14" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>182</v>
+      </c>
+      <c r="C15" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>145</v>
+      </c>
+      <c r="C17" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>167</v>
+      </c>
+      <c r="C18" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <v>145</v>
+      </c>
+      <c r="C19" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
+    <sortCondition descending="1" ref="B1:B45"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A55:A1048576 A1:A22 A27">
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1035B069-B30C-40B1-8270-BD05CA14BA3E}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1270,7 +1880,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>309</v>
@@ -1278,7 +1888,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>136</v>
@@ -1302,7 +1912,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4">
         <v>256</v>
@@ -1318,7 +1928,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4">
         <v>167</v>
@@ -1326,7 +1936,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>172</v>
@@ -1334,7 +1944,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>210</v>
@@ -1350,7 +1960,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>189</v>
@@ -1368,131 +1978,132 @@
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A50:A1048576 A27:A48 A1:A14">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7F95F1-A05E-42EF-B051-7937FD24C563}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1516,7 +2127,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4">
         <v>2009</v>
@@ -1532,7 +2143,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>711</v>
@@ -1540,7 +2151,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>505</v>
@@ -1556,7 +2167,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4">
         <v>527</v>
@@ -1564,7 +2175,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>311</v>
@@ -1572,7 +2183,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4">
         <v>300</v>
@@ -1596,7 +2207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>250</v>
@@ -1612,7 +2223,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>189</v>
@@ -1620,7 +2231,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>147</v>
@@ -1628,7 +2239,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4">
         <v>148</v>
@@ -1636,7 +2247,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>156</v>
@@ -1644,7 +2255,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>142</v>
@@ -1652,7 +2263,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4">
         <v>110</v>
@@ -1660,7 +2271,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4">
         <v>159</v>
@@ -1668,7 +2279,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>91</v>
@@ -1677,7 +2288,7 @@
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23"/>
     </row>
@@ -1693,17 +2304,17 @@
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32"/>
     </row>
@@ -1713,42 +2324,42 @@
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39"/>
@@ -1758,25 +2369,26 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A50:A1048576 A1 A23 A26 A28:A40 A48 A3:A21">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F69CF7-AF89-479D-B349-8B6499DA5EA4}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1809,7 +2421,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5">
         <v>2000</v>
@@ -1827,7 +2439,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>370</v>
@@ -1836,7 +2448,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>353</v>
@@ -1854,7 +2466,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5">
         <v>323</v>
@@ -1863,7 +2475,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9">
         <v>307</v>
@@ -1872,7 +2484,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="9">
         <v>306</v>
@@ -1881,7 +2493,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>236</v>
@@ -1899,7 +2511,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>218</v>
@@ -1908,7 +2520,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>217</v>
@@ -1926,7 +2538,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9">
         <v>191</v>
@@ -1947,7 +2559,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5">
         <v>179</v>
@@ -1956,7 +2568,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5">
         <v>178</v>
@@ -1965,7 +2577,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5">
         <v>172</v>
@@ -1974,7 +2586,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
         <v>111</v>
@@ -1983,7 +2595,7 @@
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="9">
         <v>110</v>
@@ -1992,7 +2604,7 @@
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>55</v>
@@ -2022,7 +2634,7 @@
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31"/>
@@ -2033,7 +2645,7 @@
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33"/>
@@ -2046,63 +2658,63 @@
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44"/>
@@ -2151,21 +2763,21 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A52:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44 A31 A33 A3:A23 A36:A42">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1B8769-5114-4510-946F-2A5B6D6DC5C3}">
-  <dimension ref="A1:F51"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE34174-8F15-4BFF-B3D4-4DA62FA796B5}">
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" activeCellId="1" sqref="B48 C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2185,109 +2797,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1213</v>
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>1107</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3">
-        <v>1061</v>
+        <v>1015</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B4">
-        <v>533</v>
+        <v>1087</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>313</v>
+        <v>667</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <v>257</v>
+        <v>717</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B9">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="C9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B10">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B13">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C13"/>
     </row>
@@ -2296,13 +2908,388 @@
         <v>106</v>
       </c>
       <c r="B14">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>209</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>192</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>152</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>180</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>132</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
+        <v>98</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
+        <f>SUM(B29:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A52:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A31 A33 A36:A42">
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1B8769-5114-4510-946F-2A5B6D6DC5C3}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1213</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1061</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>533</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>257</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>209</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>196</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>187</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>155</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>219</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>178</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>195</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>110</v>
       </c>
       <c r="B15">
         <v>123</v>
@@ -2311,7 +3298,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <v>166</v>
@@ -2320,7 +3307,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>167</v>
@@ -2332,7 +3319,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>132</v>
@@ -2382,7 +3369,7 @@
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31"/>
@@ -2393,7 +3380,7 @@
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33"/>
@@ -2406,63 +3393,63 @@
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44"/>
@@ -2508,21 +3495,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A52:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A44 A31 A33 A36:A42">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2ED95-7A07-4C11-B472-0435A560E3D4}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A2:A34"/>
+      <selection activeCell="M44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2532,18 +3520,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2551,23 +3539,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -2575,31 +3563,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2607,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -2615,15 +3603,15 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -2631,79 +3619,79 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -2711,112 +3699,480 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
-  <dimension ref="A1:B12"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2706E13-94E9-409B-983F-CBDE5ADCCACD}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="B7" sqref="B7:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D2B034-1C05-4D32-9F26-353CAB757521}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A2:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2827,116 +4183,127 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
         <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
-        <v>126</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" location="'enemy-ruizehouyi'!A1" display="enemy-ruizehouyi" xr:uid="{42EB218B-4606-4B50-8AEB-9718743DE285}"/>
+    <hyperlink ref="B5" location="'enemy-wuyanzu'!A1" display="enemy-wuyanzu" xr:uid="{7D58C7B2-5C7A-49A3-AED8-7D1C01FCD136}"/>
+    <hyperlink ref="B13" location="'enemy-xiaosashapolang'!A1" display="enemy-xiaosashapolang" xr:uid="{1A3E3A9E-9504-4F98-907A-82E1C6CB93E6}"/>
+    <hyperlink ref="B8" location="'enemy-ruizeboniu'!A1" display="enemy-ruizeboniu" xr:uid="{5322CE2E-D91F-4052-B743-F378F265C790}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2708B4-2686-4BCA-92C1-514E2587FF7A}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2956,171 +4323,243 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>456</v>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>2748</v>
       </c>
       <c r="C2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>636</v>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1592</v>
       </c>
       <c r="C3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>273</v>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>653</v>
       </c>
       <c r="C4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>216</v>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>341</v>
       </c>
       <c r="C5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>258</v>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>592</v>
       </c>
       <c r="C6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>165</v>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>201</v>
       </c>
       <c r="C7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>147</v>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>349</v>
       </c>
       <c r="C8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>162</v>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>306</v>
       </c>
       <c r="C9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
-        <v>123</v>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>326</v>
       </c>
       <c r="C10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>130</v>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
       </c>
       <c r="C11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>150</v>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>233</v>
       </c>
       <c r="C12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>135</v>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>199</v>
       </c>
       <c r="C13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>144</v>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="4">
+        <v>190</v>
       </c>
       <c r="C14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100</v>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4">
+        <v>189</v>
       </c>
       <c r="C15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
-        <v>116</v>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="4">
+        <v>206</v>
       </c>
       <c r="C16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4">
+        <v>223</v>
+      </c>
       <c r="C17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4">
+        <v>134</v>
+      </c>
       <c r="C18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100</v>
+      </c>
       <c r="C19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="4">
+        <v>173</v>
+      </c>
       <c r="C20"/>
       <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="4">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3129,8 +4568,208 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>456</v>
+      </c>
+      <c r="C2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>636</v>
+      </c>
+      <c r="C3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>273</v>
+      </c>
+      <c r="C4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>216</v>
+      </c>
+      <c r="C5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>258</v>
+      </c>
+      <c r="C6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>165</v>
+      </c>
+      <c r="C7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>147</v>
+      </c>
+      <c r="C8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>162</v>
+      </c>
+      <c r="C9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>123</v>
+      </c>
+      <c r="C10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>130</v>
+      </c>
+      <c r="C11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>150</v>
+      </c>
+      <c r="C12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>135</v>
+      </c>
+      <c r="C13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>144</v>
+      </c>
+      <c r="C14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>116</v>
+      </c>
+      <c r="C16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20"/>
+      <c r="F20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B20"/>
@@ -3151,7 +4790,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2342</v>
@@ -3159,7 +4798,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2110</v>
@@ -3167,7 +4806,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>322</v>
@@ -3175,7 +4814,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>407</v>
@@ -3183,7 +4822,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>558</v>
@@ -3191,7 +4830,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>321</v>
@@ -3199,7 +4838,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>311</v>
@@ -3207,7 +4846,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>313</v>
@@ -3215,7 +4854,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>369</v>
@@ -3223,7 +4862,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>212</v>
@@ -3231,7 +4870,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>174</v>
@@ -3239,7 +4878,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>226</v>
@@ -3247,7 +4886,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>164</v>
@@ -3255,7 +4894,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>119</v>
@@ -3263,7 +4902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>154</v>
@@ -3271,7 +4910,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>159</v>
@@ -3279,7 +4918,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>165</v>
@@ -3287,7 +4926,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>91</v>
@@ -3295,7 +4934,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>99</v>
@@ -3307,8 +4946,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96370C57-472B-4D3F-B6C8-2FAB15BDE5E9}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -3327,7 +4967,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>543</v>
@@ -3335,7 +4975,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>448</v>
@@ -3343,7 +4983,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>328</v>
@@ -3351,7 +4991,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>322</v>
@@ -3359,7 +4999,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>229</v>
@@ -3367,7 +5007,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>216</v>
@@ -3375,7 +5015,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>207</v>
@@ -3383,7 +5023,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>185</v>
@@ -3391,7 +5031,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>202</v>
@@ -3399,7 +5039,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>186</v>
@@ -3407,7 +5047,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>242</v>
@@ -3415,7 +5055,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>185</v>
@@ -3423,7 +5063,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>157</v>
@@ -3431,7 +5071,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>171</v>
@@ -3439,7 +5079,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>188</v>
@@ -3447,7 +5087,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>180</v>
@@ -3455,7 +5095,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>107</v>
@@ -3463,7 +5103,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>155</v>
@@ -3471,7 +5111,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>113</v>
@@ -3483,12 +5123,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EA73D-6E41-49A0-A5BB-2BBE08ABFF1D}">
-  <dimension ref="A1:B26"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3503,212 +5144,144 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>514</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>99999</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>285</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>99999</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B6">
-        <v>99999</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B7">
-        <v>99999</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>99999</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B9">
-        <v>99999</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>507</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B11">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B12">
-        <v>298</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>99999</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B16">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B17">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>99999</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
+    <sortCondition descending="1" ref="B1:B17"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326C1B-0E86-4CCC-9A03-FD4D00691CF7}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +5300,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1221</v>
@@ -3735,7 +5308,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>546</v>
@@ -3743,7 +5316,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>280</v>
@@ -3751,7 +5324,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>313</v>
@@ -3759,7 +5332,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>529</v>
@@ -3767,7 +5340,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>99999</v>
@@ -3775,7 +5348,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>315</v>
@@ -3783,7 +5356,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>304</v>
@@ -3791,7 +5364,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>291</v>
@@ -3799,7 +5372,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>186</v>
@@ -3807,7 +5380,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>172</v>
@@ -3815,7 +5388,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>164</v>
@@ -3823,7 +5396,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>134</v>
@@ -3831,7 +5404,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>99999</v>
@@ -3839,7 +5412,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>142</v>
@@ -3847,7 +5420,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>99999</v>
@@ -3855,7 +5428,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>117</v>
@@ -3863,7 +5436,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>91</v>
@@ -3871,7 +5444,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>97</v>
@@ -3879,7 +5452,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>195</v>
@@ -3887,7 +5460,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>165</v>
@@ -3895,7 +5468,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>181</v>
@@ -3903,7 +5476,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>105</v>
@@ -3911,7 +5484,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>110</v>
@@ -3919,7 +5492,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>129</v>
@@ -3931,8 +5504,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2BE39-4E6C-4E2C-8E34-2BB0DCAB511E}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3951,7 +5525,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2724</v>
@@ -3959,7 +5533,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>4009</v>
@@ -3967,7 +5541,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>383</v>
@@ -3975,7 +5549,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>99999</v>
@@ -3983,7 +5557,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>99999</v>
@@ -3991,7 +5565,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>99999</v>
@@ -3999,7 +5573,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>99999</v>
@@ -4007,7 +5581,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>99999</v>
@@ -4015,7 +5589,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>366</v>
@@ -4023,7 +5597,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>244</v>
@@ -4031,7 +5605,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>261</v>
@@ -4039,7 +5613,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>310</v>
@@ -4047,7 +5621,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>202</v>
@@ -4055,7 +5629,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>99999</v>
@@ -4063,7 +5637,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>205</v>
@@ -4071,7 +5645,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>213</v>
@@ -4079,7 +5653,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>221</v>
@@ -4087,7 +5661,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>94</v>
@@ -4095,7 +5669,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>222</v>
@@ -4103,7 +5677,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>219</v>
@@ -4111,7 +5685,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>191</v>
@@ -4119,7 +5693,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>99999</v>
@@ -4127,7 +5701,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>142</v>
@@ -4135,7 +5709,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>99999</v>
@@ -4143,7 +5717,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>99999</v>
@@ -4151,7 +5725,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>10382</v>
@@ -4159,7 +5733,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>314</v>
@@ -4167,7 +5741,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>203</v>
@@ -4175,7 +5749,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>187</v>
@@ -4183,7 +5757,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>52</v>
@@ -4195,8 +5769,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC62C21-2FC4-4E37-B6CD-74602EFB73E9}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +5790,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2042</v>
@@ -4229,7 +5804,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>4196</v>
@@ -4243,7 +5818,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>599</v>
@@ -4257,7 +5832,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>1034</v>
@@ -4271,7 +5846,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>55</v>
@@ -4285,7 +5860,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>179</v>
@@ -4299,7 +5874,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>491</v>
@@ -4313,7 +5888,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>325</v>
@@ -4327,7 +5902,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>245</v>
@@ -4341,7 +5916,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>235</v>
@@ -4355,7 +5930,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>263</v>
@@ -4369,7 +5944,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>189</v>
@@ -4383,7 +5958,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>164</v>
@@ -4397,7 +5972,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -4411,7 +5986,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>207</v>
@@ -4425,7 +6000,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>118</v>
@@ -4439,7 +6014,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>151</v>
@@ -4453,7 +6028,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>191</v>
@@ -4467,7 +6042,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>161</v>
@@ -4481,7 +6056,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>115</v>
@@ -4495,7 +6070,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -4509,7 +6084,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>99999</v>
@@ -4517,7 +6092,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>99999</v>
@@ -4525,7 +6100,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>99999</v>
@@ -4533,7 +6108,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>99999</v>
@@ -4541,7 +6116,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>99999</v>
@@ -4549,7 +6124,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>99999</v>
@@ -4557,7 +6132,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>99999</v>
@@ -4565,7 +6140,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>99999</v>
@@ -4573,7 +6148,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>99999</v>
@@ -4581,7 +6156,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>99999</v>
@@ -4589,7 +6164,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>99999</v>
@@ -4599,308 +6174,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A89633-53B3-4913-BB90-B4CB200B1FA3}">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4">
-        <v>124</v>
-      </c>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="5"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A40:A42 A44:A1048576 A1:A22 A27:A38">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>